--- a/03_Model/Safety_Stock_Model.xlsx
+++ b/03_Model/Safety_Stock_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pharma_Inventory_Optimization_Project\03_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69D9F3-2BB0-41CB-B32E-AE9B1D654232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6D73C-72D1-4BD0-8939-FBB3800C88F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BAB0C8A-CF24-410C-8808-5988A5FA4253}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Average_Demand</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Lead_Time</t>
-  </si>
-  <si>
-    <t>Service_Level</t>
-  </si>
-  <si>
-    <t>Safety_Stock</t>
-  </si>
-  <si>
-    <t>ROP</t>
-  </si>
-  <si>
-    <t>Z_Value</t>
   </si>
 </sst>
 </file>
@@ -441,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AC3D20-42ED-46DB-AC24-A9CF04004507}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,7 +448,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,20 +461,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -499,15 +475,10 @@
       <c r="D2" s="1">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F2" s="4">
-        <f>_xlfn.NORM.S.INV(E2)</f>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -520,15 +491,10 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F51" si="0">_xlfn.NORM.S.INV(E3)</f>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -541,15 +507,10 @@
       <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -562,15 +523,10 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -583,15 +539,10 @@
       <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -604,15 +555,10 @@
       <c r="D7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -625,15 +571,10 @@
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -646,15 +587,10 @@
       <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -667,15 +603,10 @@
       <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -688,15 +619,10 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3263478740408408</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -709,15 +635,10 @@
       <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -730,15 +651,10 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -751,15 +667,10 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -772,15 +683,10 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -793,13 +699,8 @@
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -814,13 +715,8 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -835,13 +731,8 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -856,13 +747,8 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -877,13 +763,8 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -898,13 +779,8 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -919,13 +795,8 @@
       <c r="D22" s="1">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -940,13 +811,8 @@
       <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -961,13 +827,8 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -982,13 +843,8 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1003,13 +859,8 @@
       <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1024,13 +875,8 @@
       <c r="D27" s="1">
         <v>5</v>
       </c>
-      <c r="E27" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1045,13 +891,8 @@
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1066,13 +907,8 @@
       <c r="D29" s="1">
         <v>5</v>
       </c>
-      <c r="E29" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1087,13 +923,8 @@
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1108,13 +939,8 @@
       <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6448536269514715</v>
-      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1129,13 +955,8 @@
       <c r="D32" s="1">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F32" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1150,13 +971,8 @@
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F33" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1171,13 +987,8 @@
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1192,13 +1003,8 @@
       <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E35" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1213,13 +1019,8 @@
       <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1234,13 +1035,8 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1255,13 +1051,8 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F38" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1276,13 +1067,8 @@
       <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1297,13 +1083,8 @@
       <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1318,13 +1099,8 @@
       <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1339,13 +1115,8 @@
       <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E42" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1360,13 +1131,8 @@
       <c r="D43" s="1">
         <v>3</v>
       </c>
-      <c r="E43" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F43" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1381,13 +1147,8 @@
       <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F44" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1402,13 +1163,8 @@
       <c r="D45" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F45" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -1423,13 +1179,8 @@
       <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E46" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F46" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1444,13 +1195,8 @@
       <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F47" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1465,13 +1211,8 @@
       <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F48" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -1486,13 +1227,8 @@
       <c r="D49" s="1">
         <v>3</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F49" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -1507,13 +1243,8 @@
       <c r="D50" s="1">
         <v>3</v>
       </c>
-      <c r="E50" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F50" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -1528,13 +1259,8 @@
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F51" s="4">
-        <f t="shared" si="0"/>
-        <v>1.2815515655446006</v>
-      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
